--- a/Data Files/MSLTestdata.xlsx
+++ b/Data Files/MSLTestdata.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sa09850\Katalon Studio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sa09850\git\MSLFramework\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8190" windowHeight="5330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8190" windowHeight="5330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LaunchApp" sheetId="7" r:id="rId1"/>
-    <sheet name="PI_InsBillInfo" sheetId="1" r:id="rId2"/>
+    <sheet name="PI_InsBillingInfo" sheetId="1" r:id="rId2"/>
     <sheet name="PI_PolicyDiscCov" sheetId="2" r:id="rId3"/>
     <sheet name="Auto" sheetId="3" r:id="rId4"/>
     <sheet name="Driver HH Member" sheetId="4" r:id="rId5"/>
@@ -51,9 +51,6 @@
     <t>NewQuote</t>
   </si>
   <si>
-    <t>480001 - WI Agency</t>
-  </si>
-  <si>
     <t>MILE-STONE</t>
   </si>
   <si>
@@ -457,7 +454,10 @@
     <t>SelectState</t>
   </si>
   <si>
-    <t>IN</t>
+    <t>W</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -526,6 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,7 +545,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F3843E83-9A6A-455A-8B67-886CB6037FF5}" diskRevisions="1" revisionId="17" version="6">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0B0E5051-DE62-4EB1-8AE1-37C4D0B38D0F}" diskRevisions="1" revisionId="21" version="10">
   <header guid="{563223BB-D620-4E77-9B59-1012413D8BE9}" dateTime="2023-07-21T19:01:50" maxSheetId="7" userName="Swetha Seelasaram" r:id="rId1">
     <sheetIdMap count="6">
       <sheetId val="1"/>
@@ -607,11 +608,61 @@
       <sheetId val="6"/>
     </sheetIdMap>
   </header>
+  <header guid="{E1CA1F9A-7638-4B44-A19F-B4C54A2173E5}" dateTime="2023-07-24T11:52:55" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId7" minRId="18">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{18C7726B-5948-485B-84E1-C24ED1D45982}" dateTime="2023-07-24T11:53:05" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId8" minRId="19">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BAC62246-BB58-4F02-9D98-CAD6E2A88820}" dateTime="2023-07-24T11:53:10" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId9" minRId="20">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0B0E5051-DE62-4EB1-8AE1-37C4D0B38D0F}" dateTime="2023-07-24T11:58:17" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId10" minRId="21">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rsnm rId="21" sheetId="1" oldName="[MSLTestdata.xlsx]PI_InsBillInfo" newName="[MSLTestdata.xlsx]PI_InsBillingInfo"/>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,8 +855,59 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="18" sId="7">
+    <oc r="E2" t="inlineStr">
+      <is>
+        <t>IN</t>
+      </is>
+    </oc>
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>W</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="19" sId="1">
+    <oc r="C2" t="inlineStr">
+      <is>
+        <t>480001 - WI Agency</t>
+      </is>
+    </oc>
+    <nc r="C2">
+      <v>4</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="20" sId="1" odxf="1" dxf="1" quotePrefix="1">
+    <oc r="C2">
+      <v>4</v>
+    </oc>
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>4</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{0B0E5051-DE62-4EB1-8AE1-37C4D0B38D0F}" name="Sandeep Thadoju" id="-404372093" dateTime="2023-07-24T12:30:52"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1073,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1090,27 +1192,27 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
         <v>136</v>
-      </c>
-      <c r="E1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1128,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1166,84 +1268,84 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="L1" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="O1" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="11">
         <v>2143</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="11">
         <v>54817</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1286,30 +1388,30 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1371,90 +1473,90 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="S1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="U1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="5">
         <v>2000</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="7">
         <v>50000</v>
@@ -1463,13 +1565,13 @@
         <v>2000</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M2" s="8">
         <v>45638</v>
@@ -1484,25 +1586,25 @@
         <v>3</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -1557,104 +1659,104 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="1">
         <v>312563456</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2">
         <v>32854</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K2" s="2">
         <v>44907</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" s="1">
         <v>762563489</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2">
         <v>33219</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K3" s="2">
         <v>44927</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1695,18 +1797,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1781,126 +1883,126 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="L1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="Z1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="AE1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AF1" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="AG1" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AI1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3">
         <v>2010</v>
@@ -1912,19 +2014,19 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L2" s="8">
         <v>44843</v>
@@ -1933,67 +2035,67 @@
         <v>800</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI2" s="7">
         <v>1000</v>

--- a/Data Files/MSLTestdata.xlsx
+++ b/Data Files/MSLTestdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8190" windowHeight="5330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8190" windowHeight="5330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LaunchApp" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
-    <customWorkbookView name="Sandeep Thadoju - Personal View" guid="{C361B274-9BF4-48E2-B593-305609B42D43}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1056" activeSheetId="7"/>
+    <customWorkbookView name="Sandeep Thadoju - Personal View" guid="{C361B274-9BF4-48E2-B593-305609B42D43}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Swetha Seelasaram - Personal View" guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" mergeInterval="0" personalView="1" maximized="1" xWindow="1358" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="138">
   <si>
     <t>Regression Name</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Attorney Association Discount</t>
   </si>
   <si>
-    <t>IB_LocAddHouse#</t>
-  </si>
-  <si>
     <t>Ol Hayes</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>IB_Phone</t>
   </si>
   <si>
-    <t>122 344 5465</t>
-  </si>
-  <si>
     <t>IB_OptDes</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
   </si>
   <si>
     <t>Auto_VehInfType</t>
-  </si>
-  <si>
-    <t>Private Passenger</t>
   </si>
   <si>
     <t>Auto_VehInfUsage</t>
@@ -458,6 +449,12 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>IB_LocAddHouse</t>
+  </si>
+  <si>
+    <t>PRIVATE PASSENGER</t>
   </si>
 </sst>
 </file>
@@ -545,7 +542,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0B0E5051-DE62-4EB1-8AE1-37C4D0B38D0F}" diskRevisions="1" revisionId="21" version="10">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0F6D2656-14B9-4B47-976E-AFF38C05025D}" diskRevisions="1" revisionId="28" version="16">
   <header guid="{563223BB-D620-4E77-9B59-1012413D8BE9}" dateTime="2023-07-21T19:01:50" maxSheetId="7" userName="Swetha Seelasaram" r:id="rId1">
     <sheetIdMap count="6">
       <sheetId val="1"/>
@@ -652,6 +649,72 @@
       <sheetId val="6"/>
     </sheetIdMap>
   </header>
+  <header guid="{40885EDE-7BA1-48AA-B5BB-6A5A208978A6}" dateTime="2023-07-24T15:13:32" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId11" minRId="22">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{34C31993-3545-467E-B3BF-F544A7CEC344}" dateTime="2023-07-24T15:30:33" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId12" minRId="23">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E2A5BAF9-2B95-43D4-8EC4-75FF71CAB1C1}" dateTime="2023-07-24T16:03:07" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId13" minRId="24" maxRId="25">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{458931D6-7EBB-4812-8C3C-7FF11BB2D0F0}" dateTime="2023-07-24T17:01:24" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId14" minRId="26" maxRId="27">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E156AB73-82D3-4AB3-987F-BF104B00D3F1}" dateTime="2023-07-24T17:31:35" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId15">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0F6D2656-14B9-4B47-976E-AFF38C05025D}" dateTime="2023-07-24T18:36:30" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId16" minRId="28">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -662,6 +725,106 @@
 <file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rsnm rId="21" sheetId="1" oldName="[MSLTestdata.xlsx]PI_InsBillInfo" newName="[MSLTestdata.xlsx]PI_InsBillingInfo"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="22" sId="1">
+    <oc r="I1" t="inlineStr">
+      <is>
+        <t>IB_LocAddHouse#</t>
+      </is>
+    </oc>
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>IB_LocAddHouse</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="23" sId="1">
+    <oc r="N2" t="inlineStr">
+      <is>
+        <t>122 344 5465</t>
+      </is>
+    </oc>
+    <nc r="N2">
+      <v>1223445465</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="24" sId="1" odxf="1" dxf="1">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>PDC_FinStability</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="25" sId="1" odxf="1" dxf="1">
+    <nc r="P2" t="inlineStr">
+      <is>
+        <t>688 - 700</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="26" sId="1">
+    <oc r="P1" t="inlineStr">
+      <is>
+        <t>PDC_FinStability</t>
+      </is>
+    </oc>
+    <nc r="P1"/>
+  </rcc>
+  <rcc rId="27" sId="1">
+    <oc r="P2" t="inlineStr">
+      <is>
+        <t>688 - 700</t>
+      </is>
+    </oc>
+    <nc r="P2"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="delete"/>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="28" sId="3">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>Private Passenger</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>PRIVATE PASSENGER</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -904,9 +1067,9 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{0B0E5051-DE62-4EB1-8AE1-37C4D0B38D0F}" name="Sandeep Thadoju" id="-404372093" dateTime="2023-07-24T12:30:52"/>
+  <userInfo guid="{0F6D2656-14B9-4B47-976E-AFF38C05025D}" name="Sandeep Thadoju" id="-404364864" dateTime="2023-07-24T17:47:23"/>
 </users>
 </file>
 
@@ -1176,10 +1339,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
@@ -1192,33 +1358,33 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1228,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1254,7 +1420,7 @@
     <col min="16" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1277,39 +1443,40 @@
         <v>10</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="L1" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="P1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>5</v>
@@ -1324,33 +1491,34 @@
         <v>11</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I2" s="11">
         <v>2143</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" s="11">
         <v>54817</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="10">
+        <v>1223445465</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="P2"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="G1">
       <selection sqref="A1:B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -1368,7 +1536,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1399,7 +1567,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1417,7 +1585,7 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C15" sqref="C15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
@@ -1433,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1473,90 +1641,90 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="L1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="S1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" s="5">
         <v>2000</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2" s="7">
         <v>50000</v>
@@ -1565,13 +1733,13 @@
         <v>2000</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M2" s="8">
         <v>45638</v>
@@ -1586,25 +1754,25 @@
         <v>3</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="U2" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -1659,104 +1827,104 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F2" s="1">
         <v>312563456</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2">
         <v>32854</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K2" s="2">
         <v>44907</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F3" s="1">
         <v>762563489</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2">
         <v>33219</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K3" s="2">
         <v>44927</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1797,18 +1965,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1883,126 +2051,126 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AI1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AM1" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D2" s="3">
         <v>2010</v>
@@ -2014,19 +2182,19 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L2" s="8">
         <v>44843</v>
@@ -2035,67 +2203,67 @@
         <v>800</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AI2" s="7">
         <v>1000</v>

--- a/Data Files/MSLTestdata.xlsx
+++ b/Data Files/MSLTestdata.xlsx
@@ -22,8 +22,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Swetha Seelasaram - Personal View" guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" mergeInterval="0" personalView="1" maximized="1" xWindow="1358" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="4"/>
     <customWorkbookView name="Sandeep Thadoju - Personal View" guid="{C361B274-9BF4-48E2-B593-305609B42D43}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Swetha Seelasaram - Personal View" guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" mergeInterval="0" personalView="1" maximized="1" xWindow="1358" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="139">
   <si>
     <t>Regression Name</t>
   </si>
@@ -156,18 +156,12 @@
     <t>50/100</t>
   </si>
   <si>
-    <t>Auto_OtherInfPrCarAutoInf</t>
-  </si>
-  <si>
     <t>Click</t>
   </si>
   <si>
     <t>Auto_PriorCar</t>
   </si>
   <si>
-    <t>AllState</t>
-  </si>
-  <si>
     <t>Auto_APCExpDate</t>
   </si>
   <si>
@@ -177,12 +171,6 @@
     <t>Auto_APCPriCarBIlimPerOcc</t>
   </si>
   <si>
-    <t>Auto_APC#ofYrs</t>
-  </si>
-  <si>
-    <t>Auto_APCOK</t>
-  </si>
-  <si>
     <t>Auto_UnderwritingInfo</t>
   </si>
   <si>
@@ -231,28 +219,10 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Auto _Underwting Info
-Is this vehicle titled in insured's personal name?</t>
-  </si>
-  <si>
-    <t>Auto_Underwriting Info
-Does Vehicle have advertising or signage.</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>Auto_Underwriting Info
-Is vechile used in delivery of, transporting of,
-materials, products or persons?</t>
-  </si>
-  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Auto_Underwriting Info
-Do you use this vehicle to travel to
- multiple job sites or clients daily.?</t>
   </si>
   <si>
     <t>Auto_UnderwritingInfoOK</t>
@@ -456,11 +426,41 @@
   <si>
     <t>PRIVATE PASSENGER</t>
   </si>
+  <si>
+    <t>Auto_OtherInfPrCarAutoInfBtn</t>
+  </si>
+  <si>
+    <t>Auto_APCNofYrs</t>
+  </si>
+  <si>
+    <t>Auto_APC_OK</t>
+  </si>
+  <si>
+    <t>UW_IsThisVehicleTitledInsPer</t>
+  </si>
+  <si>
+    <t>UW_DoesVehicleHaveAdvertisingSignage</t>
+  </si>
+  <si>
+    <t>UW_IsVechileUsedDeliveryTransporting</t>
+  </si>
+  <si>
+    <t>UW_DoYouUseThisVehicleTravel</t>
+  </si>
+  <si>
+    <t>AAAAA</t>
+  </si>
+  <si>
+    <t>TC01-NewQuote</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -524,6 +524,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,7 +545,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0F6D2656-14B9-4B47-976E-AFF38C05025D}" diskRevisions="1" revisionId="28" version="16">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B3F06B9A-F2BF-4A49-BA93-5443F867D7B2}" diskRevisions="1" revisionId="44" version="20">
   <header guid="{563223BB-D620-4E77-9B59-1012413D8BE9}" dateTime="2023-07-21T19:01:50" maxSheetId="7" userName="Swetha Seelasaram" r:id="rId1">
     <sheetIdMap count="6">
       <sheetId val="1"/>
@@ -715,6 +718,50 @@
       <sheetId val="6"/>
     </sheetIdMap>
   </header>
+  <header guid="{332BB591-E17E-4D1A-96D9-571E8E8F6575}" dateTime="2023-07-24T19:21:19" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId17" minRId="29">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4304F751-0F5C-46A3-A787-72B33AE00AE8}" dateTime="2023-07-25T13:27:04" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId18" minRId="30" maxRId="37">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7A806E72-FD70-4FB4-8D30-61B766DB0E72}" dateTime="2023-07-25T15:34:26" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId19" minRId="38" maxRId="40">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B3F06B9A-F2BF-4A49-BA93-5443F867D7B2}" dateTime="2023-07-25T17:01:07" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId20" minRId="41" maxRId="44">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -825,6 +872,168 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="29" sId="3">
+    <oc r="L2" t="inlineStr">
+      <is>
+        <t>AllState</t>
+      </is>
+    </oc>
+    <nc r="L2" t="inlineStr">
+      <is>
+        <t>ALLSTATE</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="30" sId="3">
+    <oc r="K1" t="inlineStr">
+      <is>
+        <t>Auto_OtherInfPrCarAutoInf</t>
+      </is>
+    </oc>
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>Auto_OtherInfPrCarAutoInfBtn</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="31" sId="3">
+    <oc r="P1" t="inlineStr">
+      <is>
+        <t>Auto_APC#ofYrs</t>
+      </is>
+    </oc>
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>Auto_APCNofYrs</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="32" sId="3">
+    <oc r="Q1" t="inlineStr">
+      <is>
+        <t>Auto_APCOK</t>
+      </is>
+    </oc>
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>Auto_APC_OK</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="33" sId="3">
+    <oc r="S1" t="inlineStr">
+      <is>
+        <t>Auto _Underwting Info
+Is this vehicle titled in insured's personal name?</t>
+      </is>
+    </oc>
+    <nc r="S1" t="inlineStr">
+      <is>
+        <t>UW_IsThisVehicleTitledInsPer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="34" sId="3">
+    <oc r="T2" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </oc>
+    <nc r="T2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="35" sId="3">
+    <oc r="T1" t="inlineStr">
+      <is>
+        <t>Auto_Underwriting Info
+Does Vehicle have advertising or signage.</t>
+      </is>
+    </oc>
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>UW_DoesVehicleHaveAdvertisingSignage</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="36" sId="3">
+    <oc r="U1" t="inlineStr">
+      <is>
+        <t>Auto_Underwriting Info
+Is vechile used in delivery of, transporting of,
+materials, products or persons?</t>
+      </is>
+    </oc>
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>UW_IsVechileUsedDeliveryTransporting</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="37" sId="3">
+    <oc r="V1" t="inlineStr">
+      <is>
+        <t>Auto_Underwriting Info
+Do you use this vehicle to travel to
+ multiple job sites or clients daily.?</t>
+      </is>
+    </oc>
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>UW_DoYouUseThisVehicleTravel</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="38" sId="3" numFmtId="4">
+    <oc r="N2">
+      <v>10000</v>
+    </oc>
+    <nc r="N2">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="39" sId="3" numFmtId="4">
+    <oc r="O2">
+      <v>30000</v>
+    </oc>
+    <nc r="O2">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="40" sId="3">
+    <oc r="L2" t="inlineStr">
+      <is>
+        <t>ALLSTATE</t>
+      </is>
+    </oc>
+    <nc r="L2" t="inlineStr">
+      <is>
+        <t>AAAAA</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="3" sqref="M2">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy"/>
+    </dxf>
+  </rfmt>
 </revisions>
 </file>
 
@@ -842,6 +1051,65 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="41" sId="7">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-1</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="42" sId="1">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-1</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="43" sId="2">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-1</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="44" sId="3" odxf="1" dxf="1">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-1</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="1" sId="1">
@@ -1067,9 +1335,9 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{0F6D2656-14B9-4B47-976E-AFF38C05025D}" name="Sandeep Thadoju" id="-404364864" dateTime="2023-07-24T17:47:23"/>
+  <userInfo guid="{B3F06B9A-F2BF-4A49-BA93-5443F867D7B2}" name="Sandeep Thadoju" id="-404377067" dateTime="2023-07-25T19:04:37"/>
 </users>
 </file>
 
@@ -1358,27 +1626,27 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1396,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1443,10 +1711,10 @@
         <v>10</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>19</v>
@@ -1470,13 +1738,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>5</v>
@@ -1491,7 +1759,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I2" s="11">
         <v>2143</v>
@@ -1518,11 +1786,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="G1">
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection sqref="A1:B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="G1">
       <selection sqref="A1:B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -1536,7 +1804,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1567,7 +1835,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1584,12 +1852,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+      <selection activeCell="F20" sqref="F20"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="C15" sqref="C15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
-      <selection activeCell="F20" sqref="F20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1602,7 +1870,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1633,7 +1901,7 @@
     <col min="24" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1665,48 +1933,48 @@
         <v>38</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="S1" s="6" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>131</v>
+      <c r="A2" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -1715,7 +1983,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>32</v>
@@ -1736,43 +2004,43 @@
         <v>39</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="8">
+        <v>137</v>
+      </c>
+      <c r="M2" s="13">
         <v>45638</v>
       </c>
       <c r="N2" s="7">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="O2" s="7">
-        <v>30000</v>
+        <v>3</v>
       </c>
       <c r="P2" s="3">
         <v>3</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -1780,12 +2048,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="F18" sqref="F18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="F18" sqref="F18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -1827,114 +2095,114 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F2" s="1">
         <v>312563456</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I2" s="2">
         <v>32854</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K2" s="2">
         <v>44907</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F3" s="1">
         <v>762563489</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I3" s="2">
         <v>33219</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2">
         <v>44927</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+      <selection activeCell="E20" sqref="E19:E20"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="D24" sqref="D24"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
-      <selection activeCell="E20" sqref="E19:E20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1965,27 +2233,27 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="C14" sqref="C14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="C14" sqref="C14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2051,126 +2319,126 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="U1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="W1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AM1" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D2" s="3">
         <v>2010</v>
@@ -2182,19 +2450,19 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L2" s="8">
         <v>44843</v>
@@ -2203,67 +2471,67 @@
         <v>800</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AI2" s="7">
         <v>1000</v>
@@ -2283,12 +2551,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" topLeftCell="AC1">
+      <selection activeCell="AG11" sqref="AG11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="AE22" sqref="AE22"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" topLeftCell="AC1">
-      <selection activeCell="AG11" sqref="AG11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/Data Files/MSLTestdata.xlsx
+++ b/Data Files/MSLTestdata.xlsx
@@ -9,21 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8190" windowHeight="5330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8190" windowHeight="5330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LaunchApp" sheetId="7" r:id="rId1"/>
     <sheet name="PI_InsBillingInfo" sheetId="1" r:id="rId2"/>
     <sheet name="PI_PolicyDiscCov" sheetId="2" r:id="rId3"/>
     <sheet name="Auto" sheetId="3" r:id="rId4"/>
-    <sheet name="Driver HH Member" sheetId="4" r:id="rId5"/>
+    <sheet name="Driver_HHMember" sheetId="4" r:id="rId5"/>
     <sheet name="Driver Assignment" sheetId="5" r:id="rId6"/>
     <sheet name="Home_DwlInfo" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Sandeep Thadoju - Personal View" guid="{C361B274-9BF4-48E2-B593-305609B42D43}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1056" activeSheetId="4"/>
     <customWorkbookView name="Swetha Seelasaram - Personal View" guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" mergeInterval="0" personalView="1" maximized="1" xWindow="1358" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="4"/>
-    <customWorkbookView name="Sandeep Thadoju - Personal View" guid="{C361B274-9BF4-48E2-B593-305609B42D43}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -177,42 +177,15 @@
     <t>Licensed: 5 or more years</t>
   </si>
   <si>
-    <t>Driver/HHMem_SSN</t>
-  </si>
-  <si>
-    <t>Driver/HHMem_Gender</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>Driver/HHMem_MaritalStatus</t>
-  </si>
-  <si>
     <t>Single</t>
   </si>
   <si>
-    <t>Driver/HHMem_DOB</t>
-  </si>
-  <si>
-    <t>Driver/HHMem_Occupation</t>
-  </si>
-  <si>
     <t>Carpenter</t>
   </si>
   <si>
-    <t>Driver/HHMem_LicInfoLicStatus</t>
-  </si>
-  <si>
-    <t>Driver/HHMem_LicInfLicNo.</t>
-  </si>
-  <si>
-    <t>Driver/HHMem_Date</t>
-  </si>
-  <si>
-    <t>Driver/HHMem_Acc/Vio</t>
-  </si>
-  <si>
     <t>At Fault Accident &gt; $3000 But &lt; $100,000</t>
   </si>
   <si>
@@ -241,9 +214,6 @@
   </si>
   <si>
     <t>Driver 2</t>
-  </si>
-  <si>
-    <t>Licensed : 4 years</t>
   </si>
   <si>
     <t>Female</t>
@@ -453,13 +423,44 @@
   <si>
     <t>TC01-NewQuote</t>
   </si>
+  <si>
+    <t>Driver_HHMem_LicInfoLicStatus</t>
+  </si>
+  <si>
+    <t>Driver_HHMem_Gender</t>
+  </si>
+  <si>
+    <t>Driver_HHMem_MaritalStatus</t>
+  </si>
+  <si>
+    <t>Driver_HHMem_SSN</t>
+  </si>
+  <si>
+    <t>Driver_HHMem_DOB</t>
+  </si>
+  <si>
+    <t>Driver_HHMem_Occupation</t>
+  </si>
+  <si>
+    <t>Driver_HHMem_Date</t>
+  </si>
+  <si>
+    <t>Driver_HHMem_AccVio</t>
+  </si>
+  <si>
+    <t>Driver_HHMem_LicInfLicNo</t>
+  </si>
+  <si>
+    <t>Licensed: 4 years</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm\-dd\-yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -490,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -527,6 +528,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +549,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B3F06B9A-F2BF-4A49-BA93-5443F867D7B2}" diskRevisions="1" revisionId="44" version="20">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7FE47F63-BDB5-4E36-81B7-D4786D7A7458}" diskRevisions="1" revisionId="56" version="24">
   <header guid="{563223BB-D620-4E77-9B59-1012413D8BE9}" dateTime="2023-07-21T19:01:50" maxSheetId="7" userName="Swetha Seelasaram" r:id="rId1">
     <sheetIdMap count="6">
       <sheetId val="1"/>
@@ -762,6 +766,50 @@
       <sheetId val="6"/>
     </sheetIdMap>
   </header>
+  <header guid="{97858FA5-30BC-4843-82E8-E06953B6D0C7}" dateTime="2023-07-25T22:33:30" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId21" minRId="45" maxRId="47">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FFECB1C8-55C7-49FD-9C58-08324B3A1552}" dateTime="2023-07-25T22:36:22" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId22" minRId="48" maxRId="53">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F68E67CA-8248-42DA-BCD6-8DE57DC18C65}" dateTime="2023-07-25T22:45:51" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId23" minRId="54" maxRId="55">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7FE47F63-BDB5-4E36-81B7-D4786D7A7458}" dateTime="2023-07-25T22:46:43" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId24" minRId="56">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -1110,6 +1158,182 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="45" sId="4">
+    <oc r="D1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_LicInfoLicStatus</t>
+      </is>
+    </oc>
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_LicInfoLicStatus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="46" sId="4">
+    <oc r="G1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_Gender</t>
+      </is>
+    </oc>
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_Gender</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="47" sId="4">
+    <oc r="H1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_MaritalStatus</t>
+      </is>
+    </oc>
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_MaritalStatus</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="48" sId="4">
+    <oc r="E1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_LicInfLicNo.</t>
+      </is>
+    </oc>
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_LicInfLicNo.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="49" sId="4">
+    <oc r="F1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_SSN</t>
+      </is>
+    </oc>
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_SSN</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="50" sId="4">
+    <oc r="I1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_DOB</t>
+      </is>
+    </oc>
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_DOB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="51" sId="4">
+    <oc r="J1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_Occupation</t>
+      </is>
+    </oc>
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_Occupation</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="52" sId="4">
+    <oc r="K1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_Date</t>
+      </is>
+    </oc>
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_Date</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="53" sId="4">
+    <oc r="L1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_Acc/Vio</t>
+      </is>
+    </oc>
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_AccVio</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" sqref="K2">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="mm\-dd\-yyyy"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="4" sqref="K3" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="mm\-dd\-yyyy"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="54" sId="4">
+    <oc r="E1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_LicInfLicNo.</t>
+      </is>
+    </oc>
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_LicInfLicNo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="55" sId="4">
+    <oc r="D3" t="inlineStr">
+      <is>
+        <t>Licensed : 4 years</t>
+      </is>
+    </oc>
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>Licensed: 4 years</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="56" sId="4">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-1</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="delete"/>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="1" sId="1">
@@ -1336,9 +1560,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{B3F06B9A-F2BF-4A49-BA93-5443F867D7B2}" name="Sandeep Thadoju" id="-404377067" dateTime="2023-07-25T19:04:37"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1626,15 +1848,15 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -1646,7 +1868,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1664,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1711,10 +1933,10 @@
         <v>10</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>19</v>
@@ -1738,13 +1960,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>5</v>
@@ -1759,7 +1981,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I2" s="11">
         <v>2143</v>
@@ -1786,11 +2008,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="G1">
       <selection sqref="A1:B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="G1">
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection sqref="A1:B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -1804,7 +2026,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1835,7 +2057,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1852,12 +2074,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="C15" sqref="C15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="F20" sqref="F20"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="C15" sqref="C15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1869,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1933,7 +2155,7 @@
         <v>38</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>41</v>
@@ -1948,33 +2170,33 @@
         <v>44</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>45</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -1983,7 +2205,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>32</v>
@@ -2007,7 +2229,7 @@
         <v>40</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M2" s="13">
         <v>45638</v>
@@ -2028,16 +2250,16 @@
         <v>40</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>40</v>
@@ -2048,12 +2270,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="F18" sqref="F18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="F18" sqref="F18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -2068,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2095,114 +2317,114 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1">
         <v>312563456</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2">
         <v>32854</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="2">
+        <v>49</v>
+      </c>
+      <c r="K2" s="14">
         <v>44907</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F3" s="1">
         <v>762563489</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I3" s="2">
         <v>33219</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="2">
+        <v>61</v>
+      </c>
+      <c r="K3" s="14">
         <v>44927</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="A10" sqref="A10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="E20" sqref="E19:E20"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="D24" sqref="D24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -2233,27 +2455,27 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="C14" sqref="C14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="C14" sqref="C14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2319,126 +2541,126 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="S1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="W1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="W1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AM1" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3">
         <v>2010</v>
@@ -2450,19 +2672,19 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L2" s="8">
         <v>44843</v>
@@ -2471,10 +2693,10 @@
         <v>800</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>40</v>
@@ -2483,40 +2705,40 @@
         <v>40</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>40</v>
@@ -2525,13 +2747,13 @@
         <v>40</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="AG2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI2" s="7">
         <v>1000</v>
@@ -2551,12 +2773,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="AE22" sqref="AE22"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" topLeftCell="AC1">
       <selection activeCell="AG11" sqref="AG11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="AE22" sqref="AE22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
